--- a/Project/data/交易.xlsx
+++ b/Project/data/交易.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K314"/>
+  <dimension ref="A1:K323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14579,6 +14579,429 @@
         <v>0</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>96DE006FD8F51A8A0250C1D37DB2DCFF</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>3242244504235523</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>BA8C172953D66632</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="F315" t="n">
+        <v>356.86</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>D41D8CD9</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2020/3/1</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>04:41:09</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>757B505C</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>23F3F4D23DCD112FDEA37C31E60AC55C</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>3242244504235523</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>731CB06E4FF912A2</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>61.61</v>
+      </c>
+      <c r="F316" t="n">
+        <v>295.25</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>469F7281</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2020/3/1</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>04:42:38</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>E96ED478</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>EB1124BA6C8369F18EE33AACA79A93AF</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>3242244504235523</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DE7ABC0638690944</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>293.25</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>469F7281</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2020/3/1</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>12:58:27</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>E96ED478</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>7C7FB270DB485DA6BB2BAF7C2087BC73</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>3242244504235523</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>F895C5E1AAC9A4D6</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>185</v>
+      </c>
+      <c r="F318" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>469F7281</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2020/3/1</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>17:06:58</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>E96ED478</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>08580C7D2E21851FDFAEA8A6BD18666B</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>3242244504235523</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>1F77C9FDBDBE78D0</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>25</v>
+      </c>
+      <c r="F319" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>AACC16EA</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2020/3/1</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>17:16:36</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>757B505C</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>5562E74F6D20B62DEEA3D774BEE55BB1</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5427127372921616</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0F76A363EACBDEAF</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1964.92</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1964.92</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>D41D8CD9</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2020/3/2</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>07:13:55</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>757B505C</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>96552D08D7EE1DADA8BE1DFE8BBBF9DD</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>5427127372921616</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DB31FB6ACACC6844</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1964</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>469F7281</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2020/3/2</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>07:14:33</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>E96ED478</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>779EDF3CB966BD814C8DF3D2A85500CC</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>5427127372921616</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0F76A363EACBDEAF</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>4767.72</v>
+      </c>
+      <c r="F322" t="n">
+        <v>4768.64</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>D41D8CD9</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2020/3/2</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>07:16:42</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>757B505C</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>0B25DE63E708552EFF48D273808A7477</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>5427127372921616</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DB31FB6ACACC6844</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>4767</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>469F7281</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2020/3/2</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>07:17:30</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>E96ED478</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Project/data/交易.xlsx
+++ b/Project/data/交易.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K323"/>
+  <dimension ref="A1:K314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14579,429 +14579,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>96DE006FD8F51A8A0250C1D37DB2DCFF</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>3242244504235523</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>BA8C172953D66632</t>
-        </is>
-      </c>
-      <c r="D315" t="n">
-        <v>1</v>
-      </c>
-      <c r="E315" t="n">
-        <v>349.75</v>
-      </c>
-      <c r="F315" t="n">
-        <v>356.86</v>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>D41D8CD9</t>
-        </is>
-      </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020/3/1</t>
-        </is>
-      </c>
-      <c r="I315" t="inlineStr">
-        <is>
-          <t>04:41:09</t>
-        </is>
-      </c>
-      <c r="J315" t="inlineStr">
-        <is>
-          <t>757B505C</t>
-        </is>
-      </c>
-      <c r="K315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>23F3F4D23DCD112FDEA37C31E60AC55C</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>3242244504235523</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>731CB06E4FF912A2</t>
-        </is>
-      </c>
-      <c r="D316" t="n">
-        <v>0</v>
-      </c>
-      <c r="E316" t="n">
-        <v>61.61</v>
-      </c>
-      <c r="F316" t="n">
-        <v>295.25</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>469F7281</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020/3/1</t>
-        </is>
-      </c>
-      <c r="I316" t="inlineStr">
-        <is>
-          <t>04:42:38</t>
-        </is>
-      </c>
-      <c r="J316" t="inlineStr">
-        <is>
-          <t>E96ED478</t>
-        </is>
-      </c>
-      <c r="K316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>EB1124BA6C8369F18EE33AACA79A93AF</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>3242244504235523</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>DE7ABC0638690944</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>0</v>
-      </c>
-      <c r="E317" t="n">
-        <v>2</v>
-      </c>
-      <c r="F317" t="n">
-        <v>293.25</v>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>469F7281</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020/3/1</t>
-        </is>
-      </c>
-      <c r="I317" t="inlineStr">
-        <is>
-          <t>12:58:27</t>
-        </is>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>E96ED478</t>
-        </is>
-      </c>
-      <c r="K317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>7C7FB270DB485DA6BB2BAF7C2087BC73</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>3242244504235523</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>F895C5E1AAC9A4D6</t>
-        </is>
-      </c>
-      <c r="D318" t="n">
-        <v>0</v>
-      </c>
-      <c r="E318" t="n">
-        <v>185</v>
-      </c>
-      <c r="F318" t="n">
-        <v>108.25</v>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>469F7281</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020/3/1</t>
-        </is>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>17:06:58</t>
-        </is>
-      </c>
-      <c r="J318" t="inlineStr">
-        <is>
-          <t>E96ED478</t>
-        </is>
-      </c>
-      <c r="K318" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>08580C7D2E21851FDFAEA8A6BD18666B</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>3242244504235523</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>1F77C9FDBDBE78D0</t>
-        </is>
-      </c>
-      <c r="D319" t="n">
-        <v>0</v>
-      </c>
-      <c r="E319" t="n">
-        <v>25</v>
-      </c>
-      <c r="F319" t="n">
-        <v>83.25</v>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>AACC16EA</t>
-        </is>
-      </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020/3/1</t>
-        </is>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>17:16:36</t>
-        </is>
-      </c>
-      <c r="J319" t="inlineStr">
-        <is>
-          <t>757B505C</t>
-        </is>
-      </c>
-      <c r="K319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>5562E74F6D20B62DEEA3D774BEE55BB1</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>5427127372921616</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>0F76A363EACBDEAF</t>
-        </is>
-      </c>
-      <c r="D320" t="n">
-        <v>1</v>
-      </c>
-      <c r="E320" t="n">
-        <v>1964.92</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1964.92</v>
-      </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>D41D8CD9</t>
-        </is>
-      </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020/3/2</t>
-        </is>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>07:13:55</t>
-        </is>
-      </c>
-      <c r="J320" t="inlineStr">
-        <is>
-          <t>757B505C</t>
-        </is>
-      </c>
-      <c r="K320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>96552D08D7EE1DADA8BE1DFE8BBBF9DD</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>5427127372921616</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>DB31FB6ACACC6844</t>
-        </is>
-      </c>
-      <c r="D321" t="n">
-        <v>0</v>
-      </c>
-      <c r="E321" t="n">
-        <v>1964</v>
-      </c>
-      <c r="F321" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>469F7281</t>
-        </is>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020/3/2</t>
-        </is>
-      </c>
-      <c r="I321" t="inlineStr">
-        <is>
-          <t>07:14:33</t>
-        </is>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>E96ED478</t>
-        </is>
-      </c>
-      <c r="K321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>779EDF3CB966BD814C8DF3D2A85500CC</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>5427127372921616</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>0F76A363EACBDEAF</t>
-        </is>
-      </c>
-      <c r="D322" t="n">
-        <v>1</v>
-      </c>
-      <c r="E322" t="n">
-        <v>4767.72</v>
-      </c>
-      <c r="F322" t="n">
-        <v>4768.64</v>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>D41D8CD9</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020/3/2</t>
-        </is>
-      </c>
-      <c r="I322" t="inlineStr">
-        <is>
-          <t>07:16:42</t>
-        </is>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>757B505C</t>
-        </is>
-      </c>
-      <c r="K322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>0B25DE63E708552EFF48D273808A7477</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>5427127372921616</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>DB31FB6ACACC6844</t>
-        </is>
-      </c>
-      <c r="D323" t="n">
-        <v>0</v>
-      </c>
-      <c r="E323" t="n">
-        <v>4767</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>469F7281</t>
-        </is>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020/3/2</t>
-        </is>
-      </c>
-      <c r="I323" t="inlineStr">
-        <is>
-          <t>07:17:30</t>
-        </is>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>E96ED478</t>
-        </is>
-      </c>
-      <c r="K323" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
